--- a/excel_analysis/analise_concluida.xlsx
+++ b/excel_analysis/analise_concluida.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Desktop\online_sales-marketplace\excel_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41E4DC8-F91B-4475-AFFC-DDCBCBB37986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3E9AAE-EAE1-473B-9887-F42216E7D025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{686AA98F-1C8E-4C54-BF71-731026BA8D55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{686AA98F-1C8E-4C54-BF71-731026BA8D55}"/>
   </bookViews>
   <sheets>
     <sheet name="Receita_por_Meio" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1856,7 +1856,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1864,17 +1863,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1923,9 +1923,44 @@
     <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="81">
+  <dxfs count="35">
     <dxf>
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -1934,34 +1969,7 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -1976,10 +1984,16 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
@@ -2012,162 +2026,10 @@
       <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="27" formatCode="dd/mm/yyyy\ hh:mm"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2348,6 +2210,90 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2381,6 +2327,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-22D8-4946-B5D3-1F602F38EFF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2396,6 +2347,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-22D8-4946-B5D3-1F602F38EFF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2411,6 +2367,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-22D8-4946-B5D3-1F602F38EFF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2481,6 +2442,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-22D8-4946-B5D3-1F602F38EFF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2496,6 +2462,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-22D8-4946-B5D3-1F602F38EFF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2511,6 +2482,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-22D8-4946-B5D3-1F602F38EFF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2829,6 +2805,90 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2862,6 +2922,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E06F-4918-A7E7-646F74D88F4D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2877,6 +2942,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E06F-4918-A7E7-646F74D88F4D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2892,6 +2962,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E06F-4918-A7E7-646F74D88F4D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2962,6 +3037,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-E06F-4918-A7E7-646F74D88F4D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2977,6 +3057,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-E06F-4918-A7E7-646F74D88F4D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2992,6 +3077,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-E06F-4918-A7E7-646F74D88F4D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -10240,7 +10330,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F02856F-AEF1-4E50-AF5C-E0F86F69E8A2}" name="Tabela dinâmica1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F02856F-AEF1-4E50-AF5C-E0F86F69E8A2}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -10294,7 +10384,7 @@
     <dataField name="Soma de Total Revenue" fld="7" baseField="0" baseItem="0"/>
     <dataField name="Soma de Total Revenue2" fld="7" showDataAs="percentOfTotal" baseField="10" baseItem="1" numFmtId="10"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="8">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -10313,6 +10403,78 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -10327,7 +10489,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{70C6BA89-0F72-4C9D-AC12-08907CEAB333}" name="Tabela dinâmica2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{70C6BA89-0F72-4C9D-AC12-08907CEAB333}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:C7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0">
@@ -10658,7 +10820,98 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D9C76122-3A18-43F8-9808-74269693A8FF}" name="Tabela dinâmica6" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E043BC7C-4731-433E-8E77-3C94EC4A3547}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="22" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="10"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="9"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de Transaction ID" fld="0" subtotal="count" baseField="10" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="9" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D9C76122-3A18-43F8-9808-74269693A8FF}" name="Tabela dinâmica6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A17:E22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -10725,52 +10978,52 @@
     <dataField name="Soma de Total Revenue" fld="7" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="12">
-    <format dxfId="68">
+    <format dxfId="32">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="30">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="29">
       <pivotArea field="9" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="28">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="27">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -10824,8 +11077,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8FEECA31-871F-4795-9603-A499C1C5F170}" name="Tabela dinâmica4" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8FEECA31-871F-4795-9603-A499C1C5F170}" name="Tabela dinâmica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A10:E15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
@@ -10892,14 +11145,14 @@
     <dataField name="Contagem de Transaction ID" fld="0" subtotal="count" showDataAs="percentOfRow" baseField="10" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="0">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="9" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -10989,252 +11242,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E043BC7C-4731-433E-8E77-3C94EC4A3547}" name="Tabela dinâmica3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="22" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="10"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="9"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Contagem de Transaction ID" fld="0" subtotal="count" baseField="10" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="9" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{755E36E4-5E2E-4207-880A-32AE14BA1AEA}" name="Tabela dinâmica8" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A14:E22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="22" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="10"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Contagem de Transaction ID" fld="0" subtotal="count" showDataAs="percentOfTotal" baseField="2" baseItem="3" numFmtId="10"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="18">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="15">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="11">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="10" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="9">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{89A69C77-A67D-472D-926B-2AACE7DE9FF7}" name="Tabela dinâmica7" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{89A69C77-A67D-472D-926B-2AACE7DE9FF7}" name="Tabela dinâmica7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:E11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -11313,17 +11322,17 @@
     <dataField name="Soma de Total Revenue" fld="7" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="57">
+    <format dxfId="14">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -11413,6 +11422,159 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{755E36E4-5E2E-4207-880A-32AE14BA1AEA}" name="Tabela dinâmica8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A14:E22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="22" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="10"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Contagem de Transaction ID" fld="0" subtotal="count" showDataAs="percentOfCol" baseField="2" baseItem="3" numFmtId="10"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="18">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="10" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DadosExternos_1" connectionId="1" xr16:uid="{D95A5098-3900-40DD-B3A6-CB2D38516F64}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="14">
@@ -11437,17 +11599,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{257D0174-0953-45BE-9141-58695EF65ECD}" name="Tabela1_1" displayName="Tabela1_1" ref="A1:K241" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:K241" xr:uid="{257D0174-0953-45BE-9141-58695EF65ECD}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{C2E72F2F-3A08-40A6-B99A-D78AC6A54609}" uniqueName="1" name="Transaction ID" queryTableFieldId="1" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{CDBF2AC9-6813-4909-9856-EFC260CA5058}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{CBE96252-23DC-4EE5-8CEC-784CE12274F0}" uniqueName="3" name="Product Category" queryTableFieldId="3" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{C2E72F2F-3A08-40A6-B99A-D78AC6A54609}" uniqueName="1" name="Transaction ID" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{CDBF2AC9-6813-4909-9856-EFC260CA5058}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{CBE96252-23DC-4EE5-8CEC-784CE12274F0}" uniqueName="3" name="Product Category" queryTableFieldId="3" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{50E3B1F1-8D54-4CCE-8616-13C308D9F25E}" uniqueName="4" name="Product Name" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{24934D5E-63C7-4AD8-8965-152FCAAE0C6F}" uniqueName="5" name="Units Sold" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{22628D44-6B9B-4966-A4E8-41313FC7133A}" uniqueName="6" name="Unit Price" queryTableFieldId="6"/>
-    <tableColumn id="10" xr3:uid="{0028465D-5ED0-42EE-AFB1-1EF3CD48E8E4}" uniqueName="10" name="Receita esperada" queryTableFieldId="10" dataDxfId="70">
+    <tableColumn id="10" xr3:uid="{0028465D-5ED0-42EE-AFB1-1EF3CD48E8E4}" uniqueName="10" name="Receita esperada" queryTableFieldId="10" dataDxfId="8">
       <calculatedColumnFormula>Tabela1_1[[#This Row],[Units Sold]]*Tabela1_1[[#This Row],[Unit Price]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{CDECF64B-1C20-45B5-AA30-D849904A55FA}" uniqueName="7" name="Total Revenue" queryTableFieldId="7"/>
-    <tableColumn id="13" xr3:uid="{349D777C-AE9B-4FA6-B7F8-CF569FC0E1AB}" uniqueName="13" name="Desconto" queryTableFieldId="13" dataDxfId="69">
+    <tableColumn id="13" xr3:uid="{349D777C-AE9B-4FA6-B7F8-CF569FC0E1AB}" uniqueName="13" name="Desconto" queryTableFieldId="13" dataDxfId="7">
       <calculatedColumnFormula>Tabela1_1[[#This Row],[Total Revenue]]-Tabela1_1[[#This Row],[Receita esperada]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{FFC38834-05BE-4967-951D-42B803CDD27E}" uniqueName="8" name="Region" queryTableFieldId="8"/>
@@ -11461,13 +11623,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0960D377-EA54-4150-90AE-7C1FAC458A5B}" name="Tabela1" displayName="Tabela1" ref="A1:I241" totalsRowShown="0">
   <autoFilter ref="A1:I241" xr:uid="{0960D377-EA54-4150-90AE-7C1FAC458A5B}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B07067D0-C193-4463-9FD3-6C61F0792A25}" name="Transaction ID" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{D3815268-1FD0-4ECC-8196-901382B12B78}" name="Date" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{634139F6-C4FB-4F25-A3F7-D26E6D3DD86F}" name="Product Category" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{E1291789-F954-4240-8FA8-D72E50520AE6}" name="Product Name" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{89EA6010-6DBA-4387-8D9B-01DFCAF9B5C6}" name="Units Sold" dataDxfId="73"/>
-    <tableColumn id="6" xr3:uid="{DBFECCE2-B170-4F6B-A92F-52A65AC0462C}" name="Unit Price" dataDxfId="72"/>
-    <tableColumn id="7" xr3:uid="{402B70F0-2F06-4C74-BA17-2C3B0888CD07}" name="Total Revenue" dataDxfId="71"/>
+    <tableColumn id="1" xr3:uid="{B07067D0-C193-4463-9FD3-6C61F0792A25}" name="Transaction ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{D3815268-1FD0-4ECC-8196-901382B12B78}" name="Date" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{634139F6-C4FB-4F25-A3F7-D26E6D3DD86F}" name="Product Category" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{E1291789-F954-4240-8FA8-D72E50520AE6}" name="Product Name" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{89EA6010-6DBA-4387-8D9B-01DFCAF9B5C6}" name="Units Sold" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{DBFECCE2-B170-4F6B-A92F-52A65AC0462C}" name="Unit Price" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{402B70F0-2F06-4C74-BA17-2C3B0888CD07}" name="Total Revenue" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{5EAC353C-17A1-498D-A21E-12E9D54C45A7}" name="Region"/>
     <tableColumn id="9" xr3:uid="{EE31E480-FD11-4EE7-B140-C2395557E9CD}" name="Payment Method"/>
   </tableColumns>
@@ -11794,7 +11956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95E0202-CB54-45B7-9056-0555F56DC6BA}">
   <dimension ref="A3:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -11809,7 +11971,7 @@
       <c r="A3" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>429</v>
       </c>
       <c r="C3" t="s">
@@ -11820,10 +11982,10 @@
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>51170.860000000015</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>0.63512753536305122</v>
       </c>
     </row>
@@ -11831,10 +11993,10 @@
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>8128.9300000000012</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>0.1008954564382691</v>
       </c>
     </row>
@@ -11842,10 +12004,10 @@
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>21268.060000000005</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>0.26397700819867975</v>
       </c>
     </row>
@@ -11853,15 +12015,15 @@
       <c r="A7" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>80567.85000000002</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
+      <c r="B8" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -11899,10 +12061,10 @@
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>120</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>0.50000823411228035</v>
       </c>
     </row>
@@ -11910,10 +12072,10 @@
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>40</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>0.16665843255438631</v>
       </c>
     </row>
@@ -11921,10 +12083,10 @@
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>80</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -11932,10 +12094,10 @@
       <c r="A7" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>240</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
     </row>
@@ -11978,16 +12140,16 @@
       <c r="A4" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="11" t="s">
         <v>428</v>
       </c>
     </row>
@@ -11995,14 +12157,13 @@
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>40</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>80</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>120</v>
       </c>
     </row>
@@ -12010,12 +12171,10 @@
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>40</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
+      <c r="E6">
         <v>40</v>
       </c>
     </row>
@@ -12023,12 +12182,10 @@
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>80</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
+      <c r="E7">
         <v>80</v>
       </c>
     </row>
@@ -12036,16 +12193,16 @@
       <c r="A8" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>80</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>80</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>80</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>240</v>
       </c>
     </row>
@@ -12061,16 +12218,16 @@
       <c r="A11" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="11" t="s">
         <v>428</v>
       </c>
     </row>
@@ -12078,16 +12235,16 @@
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>0</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>1</v>
       </c>
     </row>
@@ -12095,16 +12252,16 @@
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>1</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>0</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>0</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>1</v>
       </c>
     </row>
@@ -12112,16 +12269,16 @@
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>0</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>1</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>0</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>1</v>
       </c>
     </row>
@@ -12129,102 +12286,102 @@
       <c r="A15" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="12" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>14326.519999999997</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8">
         <v>36844.340000000018</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>51170.860000000015</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>8128.9300000000012</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8">
         <v>8128.9300000000012</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8">
         <v>21268.060000000005</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8">
         <v>21268.060000000005</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>22455.449999999997</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>21268.060000000005</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>36844.340000000018</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>80567.85000000002</v>
       </c>
     </row>
@@ -12238,285 +12395,286 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D84FEFA9-5615-4B0D-A161-BDCFBB525584}">
   <dimension ref="A3:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="12" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8">
         <v>2621.8999999999996</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>2621.8999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>1861.9300000000007</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
         <v>1861.9300000000007</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8">
         <v>8128.9300000000012</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
         <v>8128.9300000000012</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>34982.410000000011</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8">
         <v>34982.410000000011</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
         <v>18646.16</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>18646.16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>14326.519999999997</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
         <v>14326.519999999997</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>51170.860000000008</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>8128.9300000000012</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>21268.059999999998</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>80567.850000000006</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="16" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>0</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>0</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E16" s="7">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="7">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="C17" s="7">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C19" s="6">
         <v>0</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D19" s="6">
         <v>0</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E19" s="6">
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="7">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6">
         <v>0</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="6">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D18" s="7">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C21" s="6">
         <v>0</v>
       </c>
-      <c r="E18" s="7">
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="7">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="7">
-        <v>0</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="7">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="B22" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
         <v>1</v>
       </c>
     </row>
